--- a/企劃/卡牌升級表.xlsx
+++ b/企劃/卡牌升級表.xlsx
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -457,6 +457,86 @@
         <v>1120</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2007</v>
+      </c>
+      <c r="B13">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21">
+        <v>2120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
